--- a/股市日報_20260206.xlsx
+++ b/股市日報_20260206.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,16 +493,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0056</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>元大高股息</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.55</v>
+        <v>1770</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -519,12 +519,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8943張</t>
+          <t>1240張</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>💰外資大買(8943張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(1240張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.7743107612573, 'score': 100, 'miao_score': 10}</t>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 68.24308736064062, 'score': 100, 'miao_score': 10}</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -544,16 +544,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>0056</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>元大高股息</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>187</v>
+        <v>37.55</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -570,12 +570,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3975張</t>
+          <t>8943張</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>💰外資大買(3975張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(8943張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 46.93726612566425, 'score': 100, 'miao_score': 10}</t>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.7743107612573, 'score': 100, 'miao_score': 10}</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -595,38 +595,38 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>材料-KY</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53.2</v>
+        <v>187</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>🔥 偏多操作</t>
+          <t>🚀 強力買進</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>action-bullish</t>
+          <t>action-buy</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>276張</t>
+          <t>3975張</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>外資小買(276張) 📈站上季線 🐂MACD金叉</t>
+          <t>💰外資大買(3975張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -636,46 +636,48 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'chips': 63, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 58.5237252203154, 'score': 70.0}</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 46.93726612566425, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>家登</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>400.5</v>
+        <v>20.95</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>🔥 偏多操作</t>
+          <t>🚀 強力買進</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>action-bullish</t>
+          <t>action-buy</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>332張</t>
+          <t>37942張</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>外資小買(332張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(37942張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -685,46 +687,48 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{'chips': 66, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 47.309454544518736, 'score': 70.0}</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 66.14367677083702, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6197</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>佳必琪</t>
+          <t>開發金</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>152</v>
+        <v>18.4</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>🔥 偏多操作</t>
+          <t>🚀 強力買進</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>action-bullish</t>
+          <t>action-buy</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>272張</t>
+          <t>87429張</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>外資小買(272張) 📈站上季線 🐂MACD金叉</t>
+          <t>💰外資大買(87429張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -734,46 +738,48 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{'chips': 63, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 60.721729024142455, 'score': 70.0}</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 65.79471451057012, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5381</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>合正</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26.1</v>
+        <v>51.7</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>⏸️ 觀望持有</t>
+          <t>🚀 強力買進</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>action-hold</t>
+          <t>action-buy</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-555張</t>
+          <t>5631張</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>外資小賣(-555張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(5631張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -783,46 +789,48 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'chips': 23, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 42.649591531816306, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 63.632705374400125, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>艾訊</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>81.8</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>⏸️ 觀望持有</t>
+          <t>🚀 強力買進</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>action-hold</t>
+          <t>action-buy</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-5張</t>
+          <t>13852張</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>外資小賣(-5張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(13852張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -832,46 +840,48 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'chips': 50, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.91209720589282, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 53.85408242098496, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3265</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>台星科</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>136</v>
+        <v>61.5</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>⏸️ 觀望持有</t>
+          <t>🚀 強力買進</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>action-hold</t>
+          <t>action-buy</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-445張</t>
+          <t>16485張</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>外資小賣(-445張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(16485張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -881,46 +891,48 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'chips': 28, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 52.64499546456341, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 51.53566723856697, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>研揚</t>
+          <t>家登</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>400.5</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>⏸️ 觀望持有</t>
+          <t>🔥 偏多操作</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>action-hold</t>
+          <t>action-bullish</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-96張</t>
+          <t>332張</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>外資小賣(-96張) 📈站上季線 🐂MACD金叉</t>
+          <t>外資小買(332張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -930,7 +942,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'chips': 46, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 52.341701984964544, 'score': 60.0}</t>
+          <t>{'chips': 66, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 47.309454544518736, 'score': 70.0}</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -938,38 +950,38 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00919</t>
+          <t>6197</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>群益高股息</t>
+          <t>佳必琪</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>23.31</v>
+        <v>152</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>⏸️ 觀望持有</t>
+          <t>🔥 偏多操作</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>action-hold</t>
+          <t>action-bullish</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-989張</t>
+          <t>272張</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>外資小賣(-989張) 📈站上季線 🐻MACD死叉</t>
+          <t>外資小買(272張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -979,7 +991,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{'chips': 1, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 50.42267605565299, 'score': 60.0}</t>
+          <t>{'chips': 63, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 60.721729024142455, 'score': 70.0}</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -987,16 +999,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>研揚</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>74.8</v>
+        <v>116</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -1013,12 +1025,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2693張</t>
+          <t>-96張</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>💰外資大買(2693張) 📉跌破季線 🐻MACD死叉</t>
+          <t>外資小賣(-96張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1028,7 +1040,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.80704609960672, 'score': 60.0}</t>
+          <t>{'chips': 46, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 52.341701984964544, 'score': 60.0}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1036,19 +1048,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6715</t>
+          <t>3088</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>嘉基</t>
+          <t>艾訊</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>147.5</v>
+        <v>81.8</v>
       </c>
       <c r="D13" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1062,12 +1074,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-282張</t>
+          <t>-5張</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>外資小賣(-282張) 📈站上季線 🐂MACD金叉 ⚠️過熱</t>
+          <t>外資小賣(-5張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1077,7 +1089,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'chips': 36, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 80.178246049106, 'score': 55.0}</t>
+          <t>{'chips': 50, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.91209720589282, 'score': 60.0}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1085,19 +1097,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>00919</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>群益高股息</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1765</v>
+        <v>23.31</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1111,12 +1123,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-22238張</t>
+          <t>-989張</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>💸外資提款(-22238張) 📈站上季線 🐻MACD死叉</t>
+          <t>外資小賣(-989張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1126,7 +1138,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 59.12337100974582, 'score': 40.0}</t>
+          <t>{'chips': 1, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 50.42267605565299, 'score': 60.0}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1134,19 +1146,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1519</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>華城</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>955</v>
+        <v>74.8</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1160,12 +1172,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-1749張</t>
+          <t>2693張</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>💸外資提款(-1749張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(2693張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1175,7 +1187,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 54.673845735436444, 'score': 40.0}</t>
+          <t>{'chips': 100, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.80704609960672, 'score': 60.0}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1183,19 +1195,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>元大台灣50</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>72</v>
+        <v>52.8</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1209,12 +1221,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-65087張</t>
+          <t>5640張</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>💸外資提款(-65087張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(5640張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1224,7 +1236,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 57.65759518904453, 'score': 40.0}</t>
+          <t>{'chips': 100, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.4543001051555, 'score': 60.0}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1232,16 +1244,16 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>南亞</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>74.5</v>
+        <v>1765</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
@@ -1258,12 +1270,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-5894張</t>
+          <t>-22238張</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>💸外資提款(-5894張) 📈站上季線 🐻MACD死叉</t>
+          <t>💸外資提款(-22238張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1273,7 +1285,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 54.39416789188475, 'score': 40.0}</t>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 59.12337100974582, 'score': 40.0}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1281,38 +1293,38 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7749</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>意騰-KY</t>
+          <t>南亞</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>405.5</v>
+        <v>74.5</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>⚠️ 建議賣出</t>
+          <t>⏸️ 觀望持有</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>action-sell</t>
+          <t>action-hold</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-61張</t>
+          <t>-5894張</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>外資小賣(-61張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-5894張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1322,48 +1334,46 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'chips': 47, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.18560129105085, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 54.39416789188475, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>元大台灣50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>⚠️ 建議賣出</t>
+          <t>⏸️ 觀望持有</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>action-sell</t>
+          <t>action-hold</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-474張</t>
+          <t>-65087張</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>外資小賣(-474張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-65087張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1373,48 +1383,46 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{'chips': 27, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 40.55630115383751, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 57.65759518904453, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>日電貿</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>92.5</v>
+        <v>284</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>⚠️ 建議賣出</t>
+          <t>⏸️ 觀望持有</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>action-sell</t>
+          <t>action-hold</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-865張</t>
+          <t>-7661張</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>外資小賣(-865張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-7661張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1424,26 +1432,24 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{'chips': 7, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 42.786795165465975, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.54738886152387, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>台通</t>
+          <t>日電貿</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20.6</v>
+        <v>92.5</v>
       </c>
       <c r="D21" t="n">
         <v>3</v>
@@ -1460,12 +1466,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-570張</t>
+          <t>-865張</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>外資小賣(-570張) 📉跌破季線 🐻MACD死叉</t>
+          <t>外資小賣(-865張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1475,7 +1481,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{'chips': 22, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 36.12234425234978, 'score': 10, 'miao_score': 1}</t>
+          <t>{'chips': 7, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 42.786795165465975, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1485,16 +1491,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>台通</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>215.5</v>
+        <v>20.6</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -1511,12 +1517,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-62張</t>
+          <t>-570張</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>外資小賣(-62張) 📉跌破季線 🐻MACD死叉</t>
+          <t>外資小賣(-570張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1526,7 +1532,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{'chips': 47, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 39.223874045744694, 'score': 10, 'miao_score': 1}</t>
+          <t>{'chips': 22, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 36.12234425234978, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1536,19 +1542,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>7749</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>意騰-KY</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>361</v>
+        <v>405.5</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1562,12 +1568,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-2733張</t>
+          <t>-61張</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>💸外資提款(-2733張) 📉跌破季線 🐻MACD死叉</t>
+          <t>外資小賣(-61張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1577,7 +1583,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 37.63392175660702, 'score': 10, 'miao_score': 1}</t>
+          <t>{'chips': 47, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.18560129105085, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1587,19 +1593,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>463</v>
+        <v>162</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1613,12 +1619,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-3347張</t>
+          <t>-474張</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>💸外資提款(-3347張) 📉跌破季線 🐻MACD死叉</t>
+          <t>外資小賣(-474張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1628,7 +1634,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 37.049355239529184, 'score': 10, 'miao_score': 1}</t>
+          <t>{'chips': 27, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 40.55630115383751, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1638,19 +1644,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>大亞</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>38.4</v>
+        <v>215.5</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1664,12 +1670,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-4078張</t>
+          <t>-62張</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>💸外資提款(-4078張) 📉跌破季線 🐻MACD死叉</t>
+          <t>外資小賣(-62張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1679,7 +1685,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.56895256225291, 'score': 10, 'miao_score': 1}</t>
+          <t>{'chips': 47, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 39.223874045744694, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1689,16 +1695,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>鈊象</t>
+          <t>大亞</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>682</v>
+        <v>38.4</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1715,12 +1721,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-2466張</t>
+          <t>-4078張</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>💸外資提款(-2466張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-4078張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1730,7 +1736,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 32.31745780089258, 'score': 10, 'miao_score': 1}</t>
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.56895256225291, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1740,16 +1746,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>技嘉</t>
+          <t>鈊象</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>226</v>
+        <v>682</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1766,25 +1772,178 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>-2466張</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>💸外資提款(-2466張) 📉跌破季線 🐻MACD死叉</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 32.31745780089258, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2376</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>技嘉</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>226</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>⚠️ 建議賣出</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>action-sell</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>-1261張</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>💸外資提款(-1261張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 34.333406042058684, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2379</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>瑞昱</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>463</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>⚠️ 建議賣出</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>action-sell</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-3347張</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>💸外資提款(-3347張) 📉跌破季線 🐻MACD死叉</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 37.049355239529184, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3034</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>聯詠</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>361</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>⚠️ 建議賣出</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>action-sell</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-2733張</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>💸外資提款(-2733張) 📉跌破季線 🐻MACD死叉</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 37.63392175660702, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1</v>
       </c>
     </row>

--- a/股市日報_20260206.xlsx
+++ b/股市日報_20260206.xlsx
@@ -1481,11 +1481,11 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{'chips': 7, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 42.786795165465975, 'score': 10, 'miao_score': 1}</t>
+          <t>{'chips': 7, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 42.786795165465975, 'score': 50.0, 'miao_score': 5.0}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">

--- a/股市日報_20260206.xlsx
+++ b/股市日報_20260206.xlsx
@@ -1481,11 +1481,11 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{'chips': 7, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 42.786795165465975, 'score': 50.0, 'miao_score': 5.0}</t>
+          <t>{'chips': 7, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 42.786795165465975, 'score': 10, 'miao_score': 1}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/股市日報_20260206.xlsx
+++ b/股市日報_20260206.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,11 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>role_analysis</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>miao_score</t>
         </is>
       </c>
@@ -493,16 +498,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>00881</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>國泰科技5G</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1770</v>
+        <v>33.63</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -519,12 +524,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1240張</t>
+          <t>連續買進 (近5日買超 4263張)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>💰外資大買(1240張) 📈站上季線 🐂MACD金叉</t>
+          <t>💰外資大買(4263張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -534,26 +539,31 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 68.24308736064062, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.028247822459186, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 4,263,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 4263000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 33.63, 'ma60': 32.58083333333333, 'ma20': 32.58083333333333, 'rsi': 48.028247822459186, 'macd_diff': -0.17225556880539128, 'price_change_5d': 0.35810205908685333, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0056</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>元大高股息</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37.55</v>
+        <v>304.5</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -570,12 +580,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8943張</t>
+          <t>連續買進 (近5日買超 8582張)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>💰外資大買(8943張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(8582張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -585,10 +595,15 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.7743107612573, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 58.52539888765818, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 8,582,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 8582000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 304.5, 'ma60': 256.90833333333336, 'ma20': 256.90833333333336, 'rsi': 58.52539888765818, 'macd_diff': -3.0574995674188923, 'price_change_5d': 4.280821917808219, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,7 +619,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>187</v>
+        <v>187.5</v>
       </c>
       <c r="D4" t="n">
         <v>9</v>
@@ -621,12 +636,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3975張</t>
+          <t>連續買進 (近5日買超 1897張)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>💰外資大買(3975張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(1897張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -636,10 +651,15 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 46.93726612566425, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 47.878208773476736, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 1,897,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 1897000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 187.5, 'ma60': 186.425, 'ma20': 186.425, 'rsi': 47.878208773476736, 'macd_diff': -0.5411904313561947, 'price_change_5d': 1.9021739130434785, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -655,7 +675,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20.95</v>
+        <v>20.4</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -672,12 +692,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>37942張</t>
+          <t>連續買進 (近5日買超 72311張)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>💰外資大買(37942張) 📈站上季線 🐂MACD金叉</t>
+          <t>💰外資大買(72311張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -687,10 +707,15 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 66.14367677083702, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 57.637565098754344, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 68, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 72,311,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 72311000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bullish', 'confidence': 75, 'key_evidence': ['股價站上季線 ✓', 'MACD 多頭排列'], 'raw_data': {'close': 20.4, 'ma60': 18.959166666666665, 'ma20': 18.959166666666665, 'rsi': 57.637565098754344, 'macd_diff': 0.0915879589135758, 'price_change_5d': -3.31753554502371, 'tech_score': 2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 68}}</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -706,7 +731,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -723,12 +748,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87429張</t>
+          <t>連續買進 (近5日買超 96005張)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>💰外資大買(87429張) 📈站上季線 🐂MACD金叉</t>
+          <t>💰外資大買(96005張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -738,10 +763,15 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 65.79471451057012, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 62.40082023334529, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 96,005,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 96005000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 18.3, 'ma60': 17.0675, 'ma20': 17.0675, 'rsi': 62.40082023334529, 'macd_diff': -0.002430727213610928, 'price_change_5d': 1.6666666666666705, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -757,7 +787,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -774,12 +804,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>5631張</t>
+          <t>連續買進 (近5日買超 1700張)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>💰外資大買(5631張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(1700張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -789,10 +819,15 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 63.632705374400125, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 62.43752470061325, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 1,700,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 1700000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 51.6, 'ma60': 47.873333333333335, 'ma20': 47.873333333333335, 'rsi': 62.43752470061325, 'macd_diff': -0.07936869080939446, 'price_change_5d': 1.3752455795677856, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -808,7 +843,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>75.7</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -825,12 +860,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13852張</t>
+          <t>連續買進 (近5日買超 20330張)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>💰外資大買(13852張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(20330張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -840,10 +875,15 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 53.85408242098496, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 52.32686254514263, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 20,330,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 20330000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 75.7, 'ma60': 72.225, 'ma20': 72.225, 'rsi': 52.32686254514263, 'macd_diff': -0.2568053787960176, 'price_change_5d': 1.884253028263803, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -859,7 +899,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
@@ -876,12 +916,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16485張</t>
+          <t>連續買進 (近5日買超 32101張)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>💰外資大買(16485張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(32101張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -891,10 +931,15 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 51.53566723856697, 'score': 100, 'miao_score': 10}</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
+          <t>{'chips': 100, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 52.22228024939164, 'score': 100, 'miao_score': 10}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 32,101,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 32101000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 61.9, 'ma60': 53.29083333333334, 'ma20': 53.29083333333334, 'rsi': 52.22228024939164, 'macd_diff': -1.2132206678557056, 'price_change_5d': 1.9769357495881312, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面有利多消息', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': True, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -910,7 +955,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>400.5</v>
+        <v>393</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
@@ -927,12 +972,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>332張</t>
+          <t>調節持股 (小幅買超)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>外資小買(332張) 📈站上季線 🐻MACD死叉</t>
+          <t>外資小買(641張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -942,10 +987,15 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{'chips': 66, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 47.309454544518736, 'score': 70.0}</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>{'chips': 82, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 44.49931807147581, 'score': 70.0}</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 38, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 641,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 641000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 393.0, 'ma60': 372.68333333333334, 'ma20': 372.68333333333334, 'rsi': 44.49931807147581, 'macd_diff': -7.252199593654691, 'price_change_5d': -2.9629629629629632, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 1.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 38}}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -959,7 +1009,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>152</v>
+        <v>148.5</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
@@ -976,12 +1026,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>272張</t>
+          <t>調節持股 (小幅買超)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>外資小買(272張) 📈站上季線 🐂MACD金叉</t>
+          <t>外資小買(128張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -991,10 +1041,15 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{'chips': 63, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 60.721729024142455, 'score': 70.0}</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>{'chips': 56, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 54.0078070634834, 'score': 70.0}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 68, 'summary_human': '各項指標都偏正面，屬於相對安全的機會。', 'summary_professional': '籌碼、技術、情境三維度均偏多，風險報酬比相對有利。', 'integration_reason': '無衝突，採共識方向。', 'conflict_intensity': 0.0, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 128,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 128000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bullish', 'confidence': 75, 'key_evidence': ['股價站上季線 ✓', 'MACD 多頭排列'], 'raw_data': {'close': 148.5, 'ma60': 141.89166666666668, 'ma20': 141.89166666666668, 'rsi': 54.0078070634834, 'macd_diff': 0.13164318959752142, 'price_change_5d': 2.0618556701030926, 'tech_score': 2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 1.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': False, 'conflict_intensity': 0.0, 'conflict_roles': [], 'conflict_summary': '各角色判斷一致', 'integration_reason': '無衝突，採共識方向。', 'final_direction': 'bullish', 'final_confidence': 68}}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1008,7 +1063,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
@@ -1025,12 +1080,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-96張</t>
+          <t>調節持股 (小幅賣超)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>外資小賣(-96張) 📈站上季線 🐂MACD金叉</t>
+          <t>外資小賣(-283張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1040,10 +1095,15 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'chips': 46, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 52.341701984964544, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>{'chips': 36, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 46.32317570511316, 'score': 60.0}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 10, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.7, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 283,000 張'], 'raw_data': {'foreign_net': -283000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉', '近5日跌幅 -8.2%'], 'raw_data': {'close': 112.0, 'ma60': 110.94166666666666, 'ma20': 110.94166666666666, 'rsi': 46.32317570511316, 'macd_diff': -0.09177185509197594, 'price_change_5d': -8.19672131147541, 'tech_score': -0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 1.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.7, 'conflict_roles': ['籌碼分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(中性) vs 情境分析官(偏多) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 10}}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1057,7 +1117,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>81.8</v>
+        <v>80.8</v>
       </c>
       <c r="D13" t="n">
         <v>6</v>
@@ -1074,12 +1134,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-5張</t>
+          <t>調節持股 (小幅賣超)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>外資小賣(-5張) 📈站上季線 🐻MACD死叉</t>
+          <t>外資小賣(-23張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1089,24 +1149,29 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'chips': 50, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.91209720589282, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>{'chips': 49, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 45.03682231859036, 'score': 60.0}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 10, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.7, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 23,000 張'], 'raw_data': {'foreign_net': -23000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 80.8, 'ma60': 78.65, 'ma20': 78.65, 'rsi': 45.03682231859036, 'macd_diff': -0.6490206405039629, 'price_change_5d': -0.7371007371007475, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bullish', 'confidence': 60, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏多'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 1.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.7, 'conflict_roles': ['籌碼分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(中性) vs 情境分析官(偏多) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 10}}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00919</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>群益高股息</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.31</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D14" t="n">
         <v>6</v>
@@ -1123,12 +1188,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-989張</t>
+          <t>連續買進 (近5日買超 3078張)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>外資小賣(-989張) 📈站上季線 🐻MACD死叉</t>
+          <t>💰外資大買(3078張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1138,24 +1203,29 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'chips': 1, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 50.42267605565299, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 37.980753663742256, 'score': 60.0}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 6, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.72, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 3,078,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 3078000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 73.9, 'ma60': 78.46166666666666, 'ma20': 78.46166666666666, 'rsi': 37.980753663742256, 'macd_diff': -0.03687454376838417, 'price_change_5d': 0.5442176870748378, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於下行循環', '大盤情緒偏多'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'down', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.72, 'conflict_roles': ['技術分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(中性) vs 技術分析官(偏空) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 6}}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.8</v>
+        <v>52.2</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
@@ -1172,12 +1242,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2693張</t>
+          <t>連續買進 (近5日買超 5333張)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>💰外資大買(2693張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💰外資大買(5333張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1187,27 +1257,32 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.80704609960672, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>{'chips': 100, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 38.293003299652554, 'score': 60.0}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 6, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.72, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'neutral', 'confidence': 50, 'key_evidence': ['外資動向不明確 (淨量 5,333,000 張)', '三大法人同步買超'], 'raw_data': {'foreign_net': 5333000, 'positive_days': 3, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 52.2, 'ma60': 53.41833333333333, 'ma20': 53.41833333333333, 'rsi': 38.293003299652554, 'macd_diff': -0.3279361474529592, 'price_change_5d': -0.19120458891012299, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於下行循環', '大盤情緒偏多'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'down', 'market_sentiment': 'bullish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.72, 'conflict_roles': ['技術分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(中性) vs 技術分析官(偏空) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 6}}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.8</v>
+        <v>1780</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1221,12 +1296,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5640張</t>
+          <t>連續倒貨 (近5日賣超 38657張)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>💰外資大買(5640張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-38657張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1236,24 +1311,29 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{'chips': 100, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.4543001051555, 'score': 60.0}</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 61.15638928589383, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 4, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.75, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 38,657,000 張'], 'raw_data': {'foreign_net': -38657000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 1780.0, 'ma60': 1576.9166666666667, 'ma20': 1576.9166666666667, 'rsi': 61.15638928589383, 'macd_diff': -9.284374811364515, 'price_change_5d': 0.84985835694051, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.75, 'conflict_roles': ['籌碼分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(中性) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 4}}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>南亞</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1765</v>
+        <v>73.5</v>
       </c>
       <c r="D17" t="n">
         <v>4</v>
@@ -1270,12 +1350,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-22238張</t>
+          <t>連續倒貨 (近5日賣超 4180張)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>💸外資提款(-22238張) 📈站上季線 🐻MACD死叉</t>
+          <t>💸外資提款(-4180張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1285,24 +1365,29 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 59.12337100974582, 'score': 40.0}</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 53.00149355236491, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 4, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.75, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 4,180,000 張'], 'raw_data': {'foreign_net': -4180000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 73.5, 'ma60': 64.00333333333333, 'ma20': 64.00333333333333, 'rsi': 53.00149355236491, 'macd_diff': -0.8777288213669583, 'price_change_5d': 4.107648725212473, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.75, 'conflict_roles': ['籌碼分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(中性) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 4}}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>00919</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南亞</t>
+          <t>群益高股息</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>74.5</v>
+        <v>23.26</v>
       </c>
       <c r="D18" t="n">
         <v>4</v>
@@ -1319,12 +1404,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-5894張</t>
+          <t>連續倒貨 (近5日賣超 9188張)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>💸外資提款(-5894張) 📈站上季線 🐻MACD死叉</t>
+          <t>💸外資提款(-9188張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1334,24 +1419,29 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 54.39416789188475, 'score': 40.0}</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 49.38915268861269, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 4, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.75, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 9,188,000 張'], 'raw_data': {'foreign_net': -9188000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 23.26, 'ma60': 22.514499999999998, 'ma20': 22.514499999999998, 'rsi': 49.38915268861269, 'macd_diff': -0.12725018232221857, 'price_change_5d': 0.7798960138648323, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.75, 'conflict_roles': ['籌碼分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(中性) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 4}}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0056</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>元大台灣50</t>
+          <t>元大高股息</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>37.52</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
@@ -1368,12 +1458,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-65087張</t>
+          <t>連續倒貨 (近5日賣超 11252張)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>💸外資提款(-65087張) 📈站上季線 🐻MACD死叉</t>
+          <t>💸外資提款(-11252張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1383,24 +1473,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 57.65759518904453, 'score': 40.0}</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.35709837257446, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 4, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.75, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 11,252,000 張'], 'raw_data': {'foreign_net': -11252000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 37.52, 'ma60': 36.855000000000004, 'ma20': 36.855000000000004, 'rsi': 48.35709837257446, 'macd_diff': -0.12777684020216373, 'price_change_5d': 0.995962314939447, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.75, 'conflict_roles': ['籌碼分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(中性) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 4}}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>元大台灣50</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>284</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D20" t="n">
         <v>4</v>
@@ -1417,12 +1512,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-7661張</t>
+          <t>連續倒貨 (近5日賣超 171137張)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>💸外資提款(-7661張) 📈站上季線 🐻MACD死叉</t>
+          <t>💸外資提款(-171137張) 📈站上季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1432,46 +1527,51 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 48.54738886152387, 'score': 40.0}</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 20, 'tech_rsi': 56.993472545789906, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'neutral', 'confidence': 4, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：neutral。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.75, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 171,137,000 張'], 'raw_data': {'foreign_net': -171137000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'neutral', 'confidence': 35, 'key_evidence': ['股價站上季線 ✓', 'MACD 死叉'], 'raw_data': {'close': 71.9, 'ma60': 66.41416666666666, 'ma20': 66.41416666666666, 'rsi': 56.993472545789906, 'macd_diff': -0.378947855232006, 'price_change_5d': 0.5594405594405674, 'tech_score': 0.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.75, 'conflict_roles': ['籌碼分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(中性) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'neutral', 'final_confidence': 4}}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>日電貿</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>92.5</v>
+        <v>1710</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>⚠️ 建議賣出</t>
+          <t>⏸️ 觀望持有</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>action-sell</t>
+          <t>action-hold</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-865張</t>
+          <t>連續倒貨 (近5日賣超 4599張)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>外資小賣(-865張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-4599張) 📈站上季線 🐂MACD金叉</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1481,26 +1581,29 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{'chips': 7, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 42.786795165465975, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
+          <t>{'chips': 0, 'tech_ma': 80, 'tech_macd': 80, 'tech_rsi': 59.94379333012348, 'score': 40.0}</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bullish', 'confidence': 25, 'summary_human': '外資有在賣，但股價還撐著，可能是散戶在接，要小心後面沒人買。', 'summary_professional': '技術面維持多頭結構，但法人持續調節，需警惕籌碼面轉弱後的補跌風險。', 'integration_reason': '法人賣出但股價上漲，散戶接盤撐價。須警惕後續賣壓消化問題。', 'conflict_intensity': 0.75, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 4,599,000 張'], 'raw_data': {'foreign_net': -4599000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bullish', 'confidence': 75, 'key_evidence': ['股價站上季線 ✓', 'MACD 多頭排列'], 'raw_data': {'close': 1710.0, 'ma60': 1455.3333333333333, 'ma20': 1455.3333333333333, 'rsi': 59.94379333012348, 'macd_diff': 4.635711032267835, 'price_change_5d': 0.2932551319648094, 'tech_score': 2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'neutral', 'confidence': 40, 'key_evidence': ['基本面無明顯催化劑', '產業處於上升趨勢', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': False, 'sector_trend': 'up', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': 0.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.75, 'conflict_roles': ['籌碼分析官', '技術分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏多) vs 情境分析官(中性) vs 風險評估官(偏多)', 'integration_reason': '法人賣出但股價上漲，散戶接盤撐價。須警惕後續賣壓消化問題。', 'final_direction': 'bullish', 'final_confidence': 25}}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>7749</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台通</t>
+          <t>意騰-KY</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20.6</v>
+        <v>399</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
@@ -1517,12 +1620,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-570張</t>
+          <t>調節持股 (小幅賣超)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>外資小賣(-570張) 📉跌破季線 🐻MACD死叉</t>
+          <t>外資小賣(-87張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1532,29 +1635,34 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{'chips': 22, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 36.12234425234978, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
+          <t>{'chips': 46, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 39.04344857902301, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 87,000 張'], 'raw_data': {'foreign_net': -87000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 399.0, 'ma60': 432.51666666666665, 'ma20': 432.51666666666665, 'rsi': 39.04344857902301, 'macd_diff': -2.2066343048511445, 'price_change_5d': -2.2058823529411766, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7749</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>意騰-KY</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>405.5</v>
+        <v>215</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1568,12 +1676,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-61張</t>
+          <t>連續倒貨 (近5日賣超 22997張)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>外資小賣(-61張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-22997張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1583,29 +1691,34 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{'chips': 47, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.18560129105085, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 38.73517500609366, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 22,997,000 張'], 'raw_data': {'foreign_net': -22997000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 215.0, 'ma60': 226.86666666666667, 'ma20': 226.86666666666667, 'rsi': 38.73517500609366, 'macd_diff': -1.0015260759489681, 'price_change_5d': 0.2331002331002331, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>大亞</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>162</v>
+        <v>37.65</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1619,12 +1732,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-474張</t>
+          <t>連續倒貨 (近5日賣超 4983張)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>外資小賣(-474張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-4983張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1634,29 +1747,34 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{'chips': 27, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 40.55630115383751, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 39.368192505136534, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 4,983,000 張'], 'raw_data': {'foreign_net': -4983000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 37.65, 'ma60': 39.50083333333334, 'ma20': 39.50083333333334, 'rsi': 39.368192505136534, 'macd_diff': -0.6735521883351527, 'price_change_5d': -4.683544303797472, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3090</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>日電貿</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>215.5</v>
+        <v>91.5</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1670,12 +1788,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-62張</t>
+          <t>連續倒貨 (近5日賣超 1692張)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>外資小賣(-62張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-1692張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1685,26 +1803,31 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{'chips': 47, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 39.223874045744694, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.238639022633876, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 1,692,000 張'], 'raw_data': {'foreign_net': -1692000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 91.5, 'ma60': 94.55333333333333, 'ma20': 94.55333333333333, 'rsi': 41.238639022633876, 'macd_diff': -1.1719071477361291, 'price_change_5d': 3.040540540540544, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>3293</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>大亞</t>
+          <t>鈊象</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>38.4</v>
+        <v>681</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -1721,12 +1844,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-4078張</t>
+          <t>連續倒貨 (近5日賣超 3732張)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>💸外資提款(-4078張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-3732張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1736,26 +1859,31 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 41.56895256225291, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 32.03572954382582, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 3,732,000 張'], 'raw_data': {'foreign_net': -3732000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 681.0, 'ma60': 728.2833333333333, 'ma20': 728.2833333333333, 'rsi': 32.03572954382582, 'macd_diff': -6.552775821034846, 'price_change_5d': -3.1294452347083923, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>鈊象</t>
+          <t>台通</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>682</v>
+        <v>20.1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -1772,12 +1900,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-2466張</t>
+          <t>連續倒貨 (近5日賣超 1135張)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>💸外資提款(-2466張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-1135張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1787,10 +1915,15 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 32.31745780089258, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 32.05128831314585, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 1,135,000 張'], 'raw_data': {'foreign_net': -1135000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 20.1, 'ma60': 21.880833333333335, 'ma20': 21.880833333333335, 'rsi': 32.05128831314585, 'macd_diff': -0.18544958221710162, 'price_change_5d': -1.951219512195115, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,7 +1939,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>226</v>
+        <v>227.5</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1823,12 +1956,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-1261張</t>
+          <t>連續倒貨 (近5日賣超 2552張)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>💸外資提款(-1261張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-2552張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1838,10 +1971,15 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 34.333406042058684, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 36.880427619159384, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 2,552,000 張'], 'raw_data': {'foreign_net': -2552000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 227.5, 'ma60': 241.59166666666667, 'ma20': 241.59166666666667, 'rsi': 36.880427619159384, 'macd_diff': -1.200583708564463, 'price_change_5d': 0.0, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1857,7 +1995,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>463</v>
+        <v>472.5</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1874,12 +2012,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-3347張</t>
+          <t>連續倒貨 (近5日賣超 4649張)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>💸外資提款(-3347張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-4649張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1889,10 +2027,15 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 37.049355239529184, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 40.656244673248175, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 4,649,000 張'], 'raw_data': {'foreign_net': -4649000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 472.5, 'ma60': 509.9, 'ma20': 509.9, 'rsi': 40.656244673248175, 'macd_diff': -5.4013408436912815, 'price_change_5d': -0.5263157894736842, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1908,7 +2051,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1925,12 +2068,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-2733張</t>
+          <t>連續倒貨 (近5日賣超 3577張)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>💸外資提款(-2733張) 📉跌破季線 🐻MACD死叉</t>
+          <t>💸外資提款(-3577張) 📉跌破季線 🐻MACD死叉</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1940,10 +2083,71 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 37.63392175660702, 'score': 10, 'miao_score': 1}</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 40.72038967150433, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 3,577,000 張'], 'raw_data': {'foreign_net': -3577000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 365.0, 'ma60': 382.51666666666665, 'ma20': 382.51666666666665, 'rsi': 40.72038967150433, 'macd_diff': -2.776699308010871, 'price_change_5d': -0.9497964721845319, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>智原</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>160</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>⚠️ 建議賣出</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>action-sell</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>連續倒貨 (近5日賣超 1796張)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>💸外資提款(-1796張) 📉跌破季線 🐻MACD死叉</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{'chips': 0, 'tech_ma': 20, 'tech_macd': 20, 'tech_rsi': 38.37357929350498, 'score': 10, 'miao_score': 1}</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{'final_direction': 'bearish', 'confidence': 49, 'summary_human': '專家意見不一致，現在局勢不明，建議先觀望。', 'summary_professional': '多維度分析結果分歧，綜合評估後方向：bearish。', 'integration_reason': '多維度分歧，採信心度加權整合。', 'conflict_intensity': 0.71, 'role_outputs': [{'role_name': '籌碼分析官', 'role_conclusion': 'bearish', 'confidence': 80, 'key_evidence': ['外資連續倒貨，合計賣超 1,796,000 張'], 'raw_data': {'foreign_net': -1796000, 'positive_days': 0, 'trust_net': 0, 'dealer_net': 0}}, {'role_name': '技術分析官', 'role_conclusion': 'bearish', 'confidence': 75, 'key_evidence': ['股價跌破季線 ✗', '股價跌破月線', 'MACD 死叉'], 'raw_data': {'close': 160.0, 'ma60': 168.875, 'ma20': 168.875, 'rsi': 38.37357929350498, 'macd_diff': -1.4388257729280005, 'price_change_5d': 0.0, 'tech_score': -2.5}}, {'role_name': '情境分析官', 'role_conclusion': 'bearish', 'confidence': 60, 'key_evidence': ['基本面有利空消息', '產業處於下行循環', '大盤情緒偏空'], 'raw_data': {'has_positive_news': False, 'has_negative_news': True, 'sector_trend': 'down', 'market_sentiment': 'bearish', 'has_catalyst': False, 'context_score': -2.0}}, {'role_name': '風險評估官', 'role_conclusion': 'bullish', 'confidence': 70, 'key_evidence': ['🧘 低波動穩定'], 'raw_data': {'risk_level': 0, 'volatility': 2.0, 'current_drawdown': 0.0}}], 'conflict_resolution': {'has_conflict': True, 'conflict_intensity': 0.71, 'conflict_roles': ['籌碼分析官', '技術分析官', '情境分析官', '風險評估官'], 'conflict_summary': '角色分歧: 籌碼分析官(偏空) vs 技術分析官(偏空) vs 情境分析官(偏空) vs 風險評估官(偏多)', 'integration_reason': '多維度分歧，採信心度加權整合。', 'final_direction': 'bearish', 'final_confidence': 49}}</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
         <v>1</v>
       </c>
     </row>
